--- a/Tabel/Отчеты/График смен.xlsx
+++ b/Tabel/Отчеты/График смен.xlsx
@@ -533,13 +533,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1428,7 +1428,7 @@
   <dimension ref="A1:AJ21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
